--- a/dev/Statistica Descrittiva/Grafici.xlsx
+++ b/dev/Statistica Descrittiva/Grafici.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portable\repo\edu\dev\Statistica Descrittiva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C43227-2FAE-44AF-B56B-93E9707722D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679CEEFA-7FA3-4C0E-9D43-B2A361EBFEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{3F916530-10B9-4F01-9864-90826961812B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3F916530-10B9-4F01-9864-90826961812B}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendite" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>ANNI</t>
   </si>
@@ -120,12 +112,70 @@
   <si>
     <t>FATTURATO</t>
   </si>
+  <si>
+    <t>Mesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vendite</t>
+  </si>
+  <si>
+    <t>Gen</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Mag</t>
+  </si>
+  <si>
+    <t>Giu</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Nord</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Sud</t>
+  </si>
+  <si>
+    <t>Isole</t>
+  </si>
+  <si>
+    <t>Vendite %</t>
+  </si>
+  <si>
+    <t>TOTALE</t>
+  </si>
+  <si>
+    <t>Esperienza</t>
+  </si>
+  <si>
+    <t>Fatturato</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,18 +201,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -173,6 +230,3994 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t> VENDITE MENSILI</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>I</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> sem. - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Anno 2015</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vendite!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Vendite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vendite!$E$4:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Gen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mag</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Giu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vendite!$F$4:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6308-4ABA-B0B2-56D1ADF0756E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="526771136"/>
+        <c:axId val="526773536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="526771136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526773536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="526773536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526771136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Vendite per Area Geografica (%)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Anno 2012</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vendite!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vendite %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vendite!$B$30:$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Nord</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Centro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sud</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Isole</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vendite!$D$30:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.43795620437956206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29197080291970801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18248175182481752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7591240875912413E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-BE4F-4080-BEB0-B50A855DF736}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Vendite!$C$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v> Vendite</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000001-1AD7-49D0-96F5-EF2F164FB3D4}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000004-1AD7-49D0-96F5-EF2F164FB3D4}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000003-1AD7-49D0-96F5-EF2F164FB3D4}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000002-1AD7-49D0-96F5-EF2F164FB3D4}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="it-IT"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="35000"/>
+                            <a:lumOff val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:round/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Vendite!$B$30:$B$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>Nord</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Centro</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Sud</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Isole</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Vendite!$C$30:$C$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>24</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-1AD7-49D0-96F5-EF2F164FB3D4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+          </c:ext>
+        </c:extLst>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fatturato - Anni Esperienza</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vendite!$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fatturato</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vendite!$B$48:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vendite!$C$48:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9B6-4F83-BB94-1FC8D7B0E6A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1549621712"/>
+        <c:axId val="1549628432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1549621712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1549628432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1549628432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0\ &quot;€&quot;" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1549621712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>SPESA PER</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> SPETTACOLI</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spettacoli!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPESA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Spettacoli!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v> Lombardia </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Lazio  </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Piemonte </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Veneto </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> Liguria </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Sicilia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Campania </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Puglia </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Spettacoli!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>125911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43439</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C194-445B-836F-3EBBE2CFE2D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="526812416"/>
+        <c:axId val="526796576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="526812416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526796576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="526796576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526812416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B6EA8A-90C2-3087-6315-2C1EECBAE538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2CABBD-975B-8E0E-C7AA-09D25D244488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98A01DC-7919-8B6B-5084-F8AEB124EB78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D616634D-87A4-739F-240D-DDF505506C48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BC86391-4B90-454B-A2C2-49B36FDB8506}" name="Tabella1" displayName="Tabella1" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9" xr:uid="{2BC86391-4B90-454B-A2C2-49B36FDB8506}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B9">
+    <sortCondition descending="1" ref="B1:B9"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{68C50425-3705-4E7A-9D09-0E7FE2BF179A}" name="REGIONE"/>
+    <tableColumn id="2" xr3:uid="{79ED61B7-AFD3-46E2-9DBE-32731A75F66D}" name="SPESA" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,15 +4517,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C5DDE1-2F99-4E98-B25B-9565EB2E1DFF}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +4533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -496,64 +4541,302 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2011</v>
       </c>
       <c r="B3">
         <v>380</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2012</v>
       </c>
       <c r="B4">
         <v>410</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2013</v>
       </c>
       <c r="B5">
         <v>390</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2014</v>
       </c>
       <c r="B6">
         <v>450</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2015</v>
       </c>
       <c r="B7">
         <v>480</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2016</v>
       </c>
       <c r="B8">
         <v>470</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2017</v>
       </c>
       <c r="B9">
         <v>510</v>
       </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>120</v>
+      </c>
+      <c r="D30" s="3">
+        <f>C30/$C$34</f>
+        <v>0.43795620437956206</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>80</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" ref="D31:D34" si="0">C31/$C$34</f>
+        <v>0.29197080291970801</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18248175182481752</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>24</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>8.7591240875912413E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34">
+        <f>SUM(C30:C33)</f>
+        <v>274</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>120</v>
+      </c>
+      <c r="D37" s="3">
+        <f>C37/$C$34</f>
+        <v>0.43795620437956206</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>80</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" ref="D38:D41" si="1">C38/$C$34</f>
+        <v>0.29197080291970801</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>50</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="1"/>
+        <v>0.18248175182481752</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>24</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="1"/>
+        <v>8.7591240875912413E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <f>SUM(C37:C40)</f>
+        <v>274</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>22</v>
+      </c>
+      <c r="C52">
+        <v>23000</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E48:E52">
+    <sortCondition ref="E48:E52"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -788,7 +5071,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,50 +5089,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>60202</v>
+        <v>125911</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>125911</v>
+        <v>73555</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>43439</v>
+        <v>60202</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>28383</v>
+        <v>43439</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>73555</v>
+        <v>28383</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>10748</v>
+        <v>28031</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -862,14 +5145,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>28031</v>
+        <v>10748</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -950,8 +5237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBDBF1B-82BC-4F24-BCB1-ADEC219C9FB5}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
